--- a/scripts/arquivos_example/Tab_frase_precaucao.xlsx
+++ b/scripts/arquivos_example/Tab_frase_precaucao.xlsx
@@ -841,6 +841,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -940,10 +941,10 @@
   <dimension ref="A1:B143"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.94"/>
   </cols>

--- a/scripts/arquivos_example/Tab_frase_precaucao.xlsx
+++ b/scripts/arquivos_example/Tab_frase_precaucao.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="263">
   <si>
     <t xml:space="preserve">cod_precaucao</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">P101</t>
   </si>
   <si>
-    <t xml:space="preserve">Se for necessário consultar um médico, tenha em mãos a embalagem ou o rótulo.</t>
+    <t xml:space="preserve">Se for necessário consultar um médico, tenha em mãos a embalagem ou o rótulodo produto</t>
   </si>
   <si>
     <t xml:space="preserve">P102</t>
@@ -43,25 +43,25 @@
     <t xml:space="preserve">P103</t>
   </si>
   <si>
-    <t xml:space="preserve">Leia o rótulo antes de utilizar o produto.</t>
+    <t xml:space="preserve">Leia com atenção e siga todas as instruções.</t>
   </si>
   <si>
     <t xml:space="preserve">P201</t>
   </si>
   <si>
-    <t xml:space="preserve">Obtenha instruções específi cas antes da utilização.</t>
+    <t xml:space="preserve">Obtenha instruções específicas antes da utilização.</t>
   </si>
   <si>
     <t xml:space="preserve">P202</t>
   </si>
   <si>
-    <t xml:space="preserve">Não manuseie o produto antes de ter lido e compreendido todas as precauçõesde segurança.</t>
+    <t xml:space="preserve">Não manuseie o produto antes de ter lido e compreendido todas as precauções de segurança.</t>
   </si>
   <si>
     <t xml:space="preserve">P210</t>
   </si>
   <si>
-    <t xml:space="preserve">Mantenha afastado do calor/faísca/chama aberta/superfícies quentes. – Não fume.</t>
+    <t xml:space="preserve">Mantenha afastado do calor, superfícies quentes, faísca, chama aberta e outras fontes de ignição. Não fume.</t>
   </si>
   <si>
     <t xml:space="preserve">P211</t>
@@ -70,16 +70,16 @@
     <t xml:space="preserve">Não pulverize sobre chama aberta ou outra fonte de ignição.</t>
   </si>
   <si>
+    <t xml:space="preserve">P212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evite o aquecimento em condições de isolamento ou a redução do agente de dessensibilização</t>
+  </si>
+  <si>
     <t xml:space="preserve">P220</t>
   </si>
   <si>
-    <t xml:space="preserve">Mantenha/guarde afastado de roupa/…/materiais combustíveis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tome todas as precauções para não misturar com materiais combustíveis…</t>
+    <t xml:space="preserve">Mantenha afastado de vestimentas e outros materiais combustíveis.</t>
   </si>
   <si>
     <t xml:space="preserve">P222</t>
@@ -103,7 +103,7 @@
     <t xml:space="preserve">P231</t>
   </si>
   <si>
-    <t xml:space="preserve">Manuseie em atmosfera de gás inerte.</t>
+    <t xml:space="preserve">Manuseie e armazene em atmosfera de gás inerte/ ...</t>
   </si>
   <si>
     <t xml:space="preserve">P232</t>
@@ -121,7 +121,7 @@
     <t xml:space="preserve">P234</t>
   </si>
   <si>
-    <t xml:space="preserve">Conserve somente no recipiente original.</t>
+    <t xml:space="preserve">Conserve somente na embalagem original.</t>
   </si>
   <si>
     <t xml:space="preserve">P235</t>
@@ -151,13 +151,13 @@
     <t xml:space="preserve">P243</t>
   </si>
   <si>
-    <t xml:space="preserve">Evite o acúmulo de cargas eletrostáticas.</t>
+    <t xml:space="preserve">Tomar medidas de precaução contra descargas eletrostáticas.</t>
   </si>
   <si>
     <t xml:space="preserve">P244</t>
   </si>
   <si>
-    <t xml:space="preserve">Mantenha válvulas e conexões isentas de óleos e graxas.</t>
+    <t xml:space="preserve">Mantenha válvulas e conexões isentas de óleos e graxa.</t>
   </si>
   <si>
     <t xml:space="preserve">P250</t>
@@ -187,13 +187,13 @@
     <t xml:space="preserve">P262</t>
   </si>
   <si>
-    <t xml:space="preserve">Evite o contato com os olhos, a pele ou a roupa.</t>
+    <t xml:space="preserve">Evite o contato com os olhos, com a pele ou com a roupa.</t>
   </si>
   <si>
     <t xml:space="preserve">P263</t>
   </si>
   <si>
-    <t xml:space="preserve">Evite o contato durante a gravidez/amamentação.</t>
+    <t xml:space="preserve">Evite o contato durante a gravidez e amamentação.</t>
   </si>
   <si>
     <t xml:space="preserve">P264</t>
@@ -229,19 +229,19 @@
     <t xml:space="preserve">P280</t>
   </si>
   <si>
-    <t xml:space="preserve">Use luvas de proteção/roupa de proteção/proteção ocular/proteção facial.</t>
+    <t xml:space="preserve">Use luvas de proteção/roupa de proteção/proteção ocular/proteção facial/proteção auricular...</t>
   </si>
   <si>
     <t xml:space="preserve">P282</t>
   </si>
   <si>
-    <t xml:space="preserve">Use luvas de proteção contra o frio/proteção facial/proteção ocular.</t>
+    <t xml:space="preserve">Use luvas de proteção contra o frio e equipamento de proteção facial ou ocular.</t>
   </si>
   <si>
     <t xml:space="preserve">P283</t>
   </si>
   <si>
-    <t xml:space="preserve">Use roupa resistente a/retardadora de fogo/chama.</t>
+    <t xml:space="preserve">Use roupa resistente ao fogo ou retardante de chamas...</t>
   </si>
   <si>
     <t xml:space="preserve">P284</t>
@@ -256,12 +256,6 @@
     <t xml:space="preserve">Manuseie em atmosfera de gás inerte. Proteja da umidade.</t>
   </si>
   <si>
-    <t xml:space="preserve">P235 + P410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mantenha em local fresco. Mantenha ao abrigo da luz solar.</t>
-  </si>
-  <si>
     <t xml:space="preserve">P301</t>
   </si>
   <si>
@@ -298,12 +292,6 @@
     <t xml:space="preserve">EM CASO DE CONTATO COM A ROUPA:</t>
   </si>
   <si>
-    <t xml:space="preserve">P307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EM CASO DE exposição:</t>
-  </si>
-  <si>
     <t xml:space="preserve">P308</t>
   </si>
   <si>
@@ -313,7 +301,7 @@
     <t xml:space="preserve">P310</t>
   </si>
   <si>
-    <t xml:space="preserve">Contate imediatamente um CENTRO DE INFORMAÇÃO TOXICOLÓGICA ou um médico.</t>
+    <t xml:space="preserve">Contate imediatamente um CENTRO DE INFORMAÇÃO TOXICOLÓGICA/médico/...</t>
   </si>
   <si>
     <t xml:space="preserve">P311</t>
@@ -325,7 +313,7 @@
     <t xml:space="preserve">P312</t>
   </si>
   <si>
-    <t xml:space="preserve">Caso sinta indisposição, contate um CENTRO DE INFORMAÇÃO TOXICOLÓGICA/médico.</t>
+    <t xml:space="preserve">Caso sinta mal-estar, contate um CENTRO DE INFORMAÇÃO TOXICOLÓGICA/médico/...</t>
   </si>
   <si>
     <t xml:space="preserve">P313</t>
@@ -415,7 +403,7 @@
     <t xml:space="preserve">P340</t>
   </si>
   <si>
-    <t xml:space="preserve">Remova a pessoa para local ventilado e a mantenha em repouso numa posição que não difi culte a respiração.</t>
+    <t xml:space="preserve">Remova a pessoa para local ventilado e a mantenha em repouso em uma posição que não dificulte a respiração.</t>
   </si>
   <si>
     <t xml:space="preserve">P342</t>
@@ -439,7 +427,7 @@
     <t xml:space="preserve">P353</t>
   </si>
   <si>
-    <t xml:space="preserve">Enxágue a pele com água/tome uma ducha.</t>
+    <t xml:space="preserve">Enxágue a pele com água[ou tome uma ducha].</t>
   </si>
   <si>
     <t xml:space="preserve">P360</t>
@@ -487,7 +475,7 @@
     <t xml:space="preserve">P372</t>
   </si>
   <si>
-    <t xml:space="preserve">Risco de explosão em caso de incêndio.</t>
+    <t xml:space="preserve">Risco de explosão.</t>
   </si>
   <si>
     <t xml:space="preserve">P373</t>
@@ -496,12 +484,6 @@
     <t xml:space="preserve">NÃO combata o fogo quando ele atingir explosivos.</t>
   </si>
   <si>
-    <t xml:space="preserve">P374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combata o incêndio tomando as precauções normais, a uma distância razoável.</t>
-  </si>
-  <si>
     <t xml:space="preserve">P375</t>
   </si>
   <si>
@@ -523,7 +505,7 @@
     <t xml:space="preserve">P378</t>
   </si>
   <si>
-    <t xml:space="preserve">Para a extinção utilize</t>
+    <t xml:space="preserve">Utilize ... para extinção.</t>
   </si>
   <si>
     <t xml:space="preserve">P380</t>
@@ -535,13 +517,13 @@
     <t xml:space="preserve">P381</t>
   </si>
   <si>
-    <t xml:space="preserve">Elimine todas as fontes de ignição se puder ser feito com segurança.</t>
+    <t xml:space="preserve">Em caso de vazamento, elimine todas as fontes de ignição.</t>
   </si>
   <si>
     <t xml:space="preserve">P390</t>
   </si>
   <si>
-    <t xml:space="preserve">Absorva o produto derramado a fi m de evitar danos materiais.</t>
+    <t xml:space="preserve">Absorva o produto derramado a fim de evitar danos materiais.</t>
   </si>
   <si>
     <t xml:space="preserve">P391</t>
@@ -559,7 +541,7 @@
     <t xml:space="preserve">P301 + P312</t>
   </si>
   <si>
-    <t xml:space="preserve">EM CASO DE INGESTÃO: Caso sinta indisposição, contate um CENTRO DE INFORMAÇÃO TOXICOLÓGICA/ médico/...</t>
+    <t xml:space="preserve">EM CASO DE INGESTÃO: Em caso de mal-estar, contate um CENTRO DE INFORMAÇÃO TOXICOLÓGICA/médico/...</t>
   </si>
   <si>
     <t xml:space="preserve">P301 + P330 + P331</t>
@@ -568,6 +550,12 @@
     <t xml:space="preserve">EM CASO DE INGESTÃO: Enxágue a boca. NÃO provoque vômito.</t>
   </si>
   <si>
+    <t xml:space="preserve">P302 + P312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EM CASO DE CONTATO COM A PELE: em caso de mal estar, contate um CENTRO DE INFORMAÇÃO TOXICOLÓGICA/médico/..</t>
+  </si>
+  <si>
     <t xml:space="preserve">P302 + P334</t>
   </si>
   <si>
@@ -580,45 +568,36 @@
     <t xml:space="preserve">EM CASO DE CONTATO COM A PELE: Lave com água e sabão em abundância.</t>
   </si>
   <si>
+    <t xml:space="preserve">P304 + P312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EM CASO DE INALAÇÃO: Em caso de mal-estar, contate um CENTRO DE INFORMAÇÃO TOXICOLÓGICA/ médico/...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P304 + P340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EM CASO DE INALAÇÃO: Remova a pessoa para local ventilado e a mantenha em repouso numa posição que não dificulte a respiração.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P305 + P351 + P338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EM CASO DE CONTATO COM OS OLHOS: Enxágue cuidadosamente com água durante vários minutos. No caso de uso de lentes de contato, remova-as, se for fácil. Continue enxaguando.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P306 + P360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EM CASO DE CONTATO COM A ROUPA: Enxágue imediatamente com água em abundância a roupa e a pele contaminadas antes de se despir.</t>
+  </si>
+  <si>
     <t xml:space="preserve">P303 + P361 + P353</t>
   </si>
   <si>
-    <t xml:space="preserve">EM CASO DE CONTATO COM A PELE (ou com o cabelo): Retire imediatamente toda a roupa contaminada. Enxágue a pele com água/ tome uma ducha.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P304 + P312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EM CASO DE INALAÇÃO: Caso sinta indisposição, contate um CENTRO DE INFORMAÇÃO TOXICOLÔGICA/ médico/...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P304 + P340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EM CASO DE INALAÇÃO: Remova a pessoa para local ventilado e a mantenha em repouso numa posição que não difi culte a respiração.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P305 + P351 + P338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EM CASO DE CONTATO COM OS OLHOS: Enxágue cuidadosamente com água durante vários minutos. No caso de uso de lentes de contato, remova-as, se for fácil. Continue enxaguando.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P306 + P360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EM CASO DE CONTATO COM A ROUPA: Enxágue imediatamente com água em abundância a roupa e a pele contaminadas antes de se despir.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EM CASO DE CONTATO COM A PELE: Mergulhe em água fria/aplique compressas úmidas.</t>
-  </si>
-  <si>
     <t xml:space="preserve">EM CASO DE CONTATO COM A PELE (ou com o cabelo): Retire imediatamente toda a roupa contaminada. Enxágue a pele com água/tome uma ducha</t>
   </si>
   <si>
-    <t xml:space="preserve">EM CASO DE INALAÇÃO: Caso sinta indisposição, contate um CENTRO DE INFORMAÇÃO TOXICOLÓGICA/ médico/...</t>
-  </si>
-  <si>
     <t xml:space="preserve">P308 + P311</t>
   </si>
   <si>
@@ -643,10 +622,10 @@
     <t xml:space="preserve">Em caso de irritação ou erupção cutânea: Consulte um médico.</t>
   </si>
   <si>
-    <t xml:space="preserve">P335 + P334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remova da pele as partículas soltas. Mergulhe em água fria/aplique compressas úmidas.</t>
+    <t xml:space="preserve">P336 + P315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descongele com água morna as áreas afetadas. Não esfregue a área afetada. Consulte imediatamente um médico.</t>
   </si>
   <si>
     <t xml:space="preserve">P337 + P313</t>
@@ -664,13 +643,13 @@
     <t xml:space="preserve">P361 + P364</t>
   </si>
   <si>
-    <t xml:space="preserve">Retire imediatamente toda a roupa contaminada e lave-a antes de usá-la novamente.</t>
+    <t xml:space="preserve">Retire imediatamente toda a roupa contaminada. Lave-a antes de usá-la novamente.</t>
   </si>
   <si>
     <t xml:space="preserve">P362 + P364</t>
   </si>
   <si>
-    <t xml:space="preserve">Retire toda a roupa contaminada e lave-a antes de usá-la novamente.</t>
+    <t xml:space="preserve">Retire a roupa contaminada. Lave-a antes de usá-la novamente.</t>
   </si>
   <si>
     <t xml:space="preserve">P370 + P376</t>
@@ -682,13 +661,43 @@
     <t xml:space="preserve">P370 + P378</t>
   </si>
   <si>
-    <t xml:space="preserve">Em caso de incêndio: Para a extinção utilize…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P370 + P380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Em caso de incêndio: Abandone a área.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Em caso de incêndio: Utilize CO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> para a extinção.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">P302 + P335 + P334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EM CASO DE CONTATO COM A PELE: Remova da pele as partículas soltas. Mergulhe em água fria [ou aplique compressas úmidas]</t>
   </si>
   <si>
     <t xml:space="preserve">P370 + P380 + P375</t>
@@ -700,7 +709,16 @@
     <t xml:space="preserve">P371 + P380 + P375</t>
   </si>
   <si>
-    <t xml:space="preserve">Em caso de incêndio de grandes proporções: Abandone a área. Combata o incêndio à distância, devido ao risco de explosão</t>
+    <t xml:space="preserve">P370 + P372 + P380 + P373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em caso de incêndio: Risco de explosão. Abandone a área. NÃO combata o fogo quando ele atingir os explosivos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P370 + P380 + P375 + P378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em caso de incêndio: Abandone a área. Combata o incendio a distância, devido ao risco de explosão. [utilize ... para extinção].</t>
   </si>
   <si>
     <t xml:space="preserve">P401</t>
@@ -775,12 +793,6 @@
     <t xml:space="preserve">Armazene afastado de outros materiais.</t>
   </si>
   <si>
-    <t xml:space="preserve">P422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armazene o conteúdo em…</t>
-  </si>
-  <si>
     <t xml:space="preserve">P402 + P404</t>
   </si>
   <si>
@@ -811,12 +823,6 @@
     <t xml:space="preserve">Mantenha ao abrigo da luz solar. Não exponha a temperaturas superiores a 50 °C.</t>
   </si>
   <si>
-    <t xml:space="preserve">P411 + P235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armazene a uma temperatura não superior a… °C. Mantenha em local fresco.</t>
-  </si>
-  <si>
     <t xml:space="preserve">P501</t>
   </si>
   <si>
@@ -827,6 +833,12 @@
   </si>
   <si>
     <t xml:space="preserve">Solicite informações ao fabricante/fornecedor sobre a recuperação/reciclagem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicite informações ao fabricante/fornecedor/... Sobre o descarte/recuperação/reciclagem</t>
   </si>
 </sst>
 </file>
@@ -836,7 +848,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -859,6 +871,14 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -938,18 +958,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:B134"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E103" activeCellId="0" sqref="E103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -957,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -965,7 +985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -973,7 +993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -981,7 +1001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,7 +1009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -997,7 +1017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1005,7 +1025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1013,7 +1033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1021,7 +1041,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1029,7 +1049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1037,7 +1057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1045,7 +1065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1053,7 +1073,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1061,7 +1081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1069,7 +1089,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1077,7 +1097,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1085,7 +1105,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1093,7 +1113,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1101,7 +1121,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1109,7 +1129,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -1117,7 +1137,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1125,7 +1145,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -1133,7 +1153,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -1141,7 +1161,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1149,7 +1169,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -1157,7 +1177,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -1165,7 +1185,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -1173,7 +1193,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -1181,7 +1201,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -1189,7 +1209,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -1197,7 +1217,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -1205,7 +1225,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -1213,7 +1233,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -1221,7 +1241,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -1229,7 +1249,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
@@ -1237,7 +1257,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -1245,7 +1265,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -1253,7 +1273,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -1261,7 +1281,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
@@ -1269,7 +1289,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
@@ -1277,7 +1297,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -1285,7 +1305,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -1293,7 +1313,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -1301,7 +1321,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -1309,7 +1329,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
@@ -1317,7 +1337,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
@@ -1325,7 +1345,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
@@ -1333,7 +1353,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
@@ -1341,7 +1361,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
@@ -1349,7 +1369,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
@@ -1357,7 +1377,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
@@ -1365,7 +1385,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -1373,7 +1393,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -1381,7 +1401,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -1389,7 +1409,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -1397,7 +1417,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -1405,7 +1425,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
@@ -1413,7 +1433,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>116</v>
       </c>
@@ -1421,7 +1441,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
@@ -1429,7 +1449,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -1437,7 +1457,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
@@ -1445,7 +1465,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
@@ -1453,7 +1473,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
@@ -1461,7 +1481,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>128</v>
       </c>
@@ -1469,7 +1489,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>130</v>
       </c>
@@ -1477,7 +1497,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>132</v>
       </c>
@@ -1485,7 +1505,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>134</v>
       </c>
@@ -1493,7 +1513,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>136</v>
       </c>
@@ -1501,7 +1521,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>138</v>
       </c>
@@ -1509,7 +1529,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>140</v>
       </c>
@@ -1517,7 +1537,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
@@ -1525,7 +1545,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
@@ -1533,7 +1553,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
@@ -1541,7 +1561,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>148</v>
       </c>
@@ -1549,7 +1569,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>150</v>
       </c>
@@ -1557,7 +1577,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>152</v>
       </c>
@@ -1565,7 +1585,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>154</v>
       </c>
@@ -1573,7 +1593,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>156</v>
       </c>
@@ -1581,7 +1601,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>158</v>
       </c>
@@ -1589,7 +1609,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
@@ -1597,7 +1617,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
@@ -1605,7 +1625,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>164</v>
       </c>
@@ -1613,7 +1633,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>166</v>
       </c>
@@ -1621,7 +1641,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>168</v>
       </c>
@@ -1629,7 +1649,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>170</v>
       </c>
@@ -1637,7 +1657,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>172</v>
       </c>
@@ -1645,7 +1665,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>174</v>
       </c>
@@ -1653,7 +1673,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>176</v>
       </c>
@@ -1661,7 +1681,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>178</v>
       </c>
@@ -1669,7 +1689,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>180</v>
       </c>
@@ -1677,7 +1697,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>182</v>
       </c>
@@ -1685,7 +1705,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>184</v>
       </c>
@@ -1693,7 +1713,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>186</v>
       </c>
@@ -1701,7 +1721,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>188</v>
       </c>
@@ -1709,389 +1729,312 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B97" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
+    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B98" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
+    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B99" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="14.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>268</v>
-      </c>
+      <c r="B134" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
